--- a/tut05/output/0401CS12.xlsx
+++ b/tut05/output/0401CS12.xlsx
@@ -550,16 +550,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.326530612244898</v>
+        <v>8.33</v>
       </c>
       <c r="C6" t="n">
-        <v>8.090909090909092</v>
+        <v>8.09</v>
       </c>
       <c r="D6" t="n">
         <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>8.148936170212766</v>
+        <v>8.15</v>
       </c>
       <c r="F6" t="n">
         <v>9</v>
@@ -568,7 +568,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>9.24390243902439</v>
+        <v>9.24</v>
       </c>
       <c r="I6" t="n">
         <v>8.65</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.326530612244898</v>
+        <v>8.33</v>
       </c>
       <c r="C8" t="n">
-        <v>8.21505376344086</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>8.147058823529411</v>
+        <v>8.15</v>
       </c>
       <c r="E8" t="n">
-        <v>8.147540983606557</v>
+        <v>8.15</v>
       </c>
       <c r="F8" t="n">
-        <v>8.306666666666667</v>
+        <v>8.31</v>
       </c>
       <c r="G8" t="n">
-        <v>8.381132075471697</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>8.496732026143791</v>
+        <v>8.5</v>
       </c>
       <c r="I8" t="n">
-        <v>8.514450867052023</v>
+        <v>8.51</v>
       </c>
     </row>
   </sheetData>
